--- a/data/raw/Sept_2018.xlsx
+++ b/data/raw/Sept_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\FCSC\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\FSCS_Project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEF2FA1-599B-4738-BCBD-903EDEE53F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CEEDB4-5595-47C2-84ED-6BF01EA1876E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20505" yWindow="2205" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22560" yWindow="1140" windowWidth="18900" windowHeight="11055" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,15 @@
     <sheet name="AVG Plant AVG Gal Chart" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Trim Bag Wt" sheetId="7" r:id="rId7"/>
-    <sheet name="PlantInfo" sheetId="8" r:id="rId8"/>
+    <sheet name="Plant_Info" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="PlantName">PlantInfo!$B:$C</definedName>
+    <definedName name="PlantName">Plant_Info!$B:$C</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId9"/>
-    <pivotCache cacheId="8" r:id="rId10"/>
+    <pivotCache cacheId="26" r:id="rId9"/>
+    <pivotCache cacheId="29" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -494,19 +494,18 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
         <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
         </patternFill>
       </fill>
       <border>
-        <top style="double">
-          <color rgb="FF000000"/>
-        </top>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -515,14 +514,14 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
         </patternFill>
       </fill>
       <border>
-        <top style="thin">
+        <right style="thin">
           <color rgb="FFFFFFFF"/>
-        </top>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -531,46 +530,14 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
         </patternFill>
       </fill>
       <border>
-        <top style="thin">
+        <right style="thin">
           <color rgb="FFFFFFFF"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -627,14 +594,14 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
       <border>
-        <right style="thin">
+        <top style="thin">
           <color rgb="FFFFFFFF"/>
-        </right>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -643,14 +610,14 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
       <border>
-        <right style="thin">
+        <top style="thin">
           <color rgb="FFFFFFFF"/>
-        </right>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -659,14 +626,47 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
       <border>
-        <right style="thin">
+        <top style="thin">
           <color rgb="FFFFFFFF"/>
-        </right>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="double">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -684,17 +684,17 @@
   <tableStyles count="1">
     <tableStyle name="Google Sheets Pivot Table Style" table="0" count="12" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="1"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="3"/>
-      <tableStyleElement type="thirdSubtotalRow" dxfId="2"/>
-      <tableStyleElement type="firstColumnSubheading" dxfId="8"/>
-      <tableStyleElement type="secondColumnSubheading" dxfId="7"/>
-      <tableStyleElement type="thirdColumnSubheading" dxfId="6"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
-      <tableStyleElement type="thirdRowSubheading" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="9"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="8"/>
+      <tableStyleElement type="thirdSubtotalRow" dxfId="7"/>
+      <tableStyleElement type="firstColumnSubheading" dxfId="6"/>
+      <tableStyleElement type="secondColumnSubheading" dxfId="5"/>
+      <tableStyleElement type="thirdColumnSubheading" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -730,7 +730,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1174,7 +1174,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1">
+                  <a:rPr lang="en-US" b="1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1254,7 +1254,7 @@
                     <a:latin typeface="Roboto"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1379,7 +1379,7 @@
                     <a:latin typeface="Roboto"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1439,7 +1439,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0">
+          <a:pPr lvl="0" rtl="0">
             <a:defRPr b="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -1478,7 +1478,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" title="Chart">
@@ -1544,7 +1544,61 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Justin" refreshedDate="44802.517603587963" refreshedVersion="8" recordCount="177" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Justin" refreshedDate="44802.721123958334" refreshedVersion="8" recordCount="177" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E178" sheet="Form Responses 1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Timestamp" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-09-19T12:44:29" maxDate="2018-10-12T00:00:00"/>
+    </cacheField>
+    <cacheField name="Plant ID" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Trimmer" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="Smit"/>
+        <s v="House"/>
+        <s v="Brie"/>
+        <s v="Hunter"/>
+        <s v="JJ"/>
+        <s v="Campo"/>
+        <s v="Bob"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Weight (g)" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.5" maxValue="340"/>
+    </cacheField>
+    <cacheField name="SImple Date" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T00:00:00" maxDate="2018-10-12T00:00:00" count="14">
+        <d v="2018-09-19T00:00:00"/>
+        <d v="2018-09-20T00:00:00"/>
+        <d v="2018-09-24T00:00:00"/>
+        <d v="2018-09-28T00:00:00"/>
+        <d v="2018-10-01T00:00:00"/>
+        <d v="2018-10-02T00:00:00"/>
+        <d v="2018-10-04T00:00:00"/>
+        <d v="2018-10-05T00:00:00"/>
+        <d v="2018-10-08T00:00:00"/>
+        <d v="2018-10-09T00:00:00"/>
+        <d v="2018-10-10T00:00:00"/>
+        <d v="2018-10-11T00:00:00"/>
+        <d v="1899-12-30T00:00:00"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Justin" refreshedDate="44802.721124189811" refreshedVersion="8" recordCount="177" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D178" sheet="Form Responses 1"/>
   </cacheSource>
@@ -1603,1123 +1657,1246 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Justin" refreshedDate="44802.517603703702" refreshedVersion="8" recordCount="177" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E178" sheet="Form Responses 1"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Timestamp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-09-19T12:44:29" maxDate="2018-10-12T00:00:00"/>
-    </cacheField>
-    <cacheField name="Plant ID" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Trimmer" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
-        <s v="Smit"/>
-        <s v="House"/>
-        <s v="Brie"/>
-        <s v="Hunter"/>
-        <s v="JJ"/>
-        <s v="Campo"/>
-        <s v="Bob"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Weight (g)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.5" maxValue="340"/>
-    </cacheField>
-    <cacheField name="SImple Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T00:00:00" maxDate="2018-10-12T00:00:00" count="14">
-        <d v="2018-09-19T00:00:00"/>
-        <d v="2018-09-20T00:00:00"/>
-        <d v="2018-09-24T00:00:00"/>
-        <d v="2018-09-28T00:00:00"/>
-        <d v="2018-10-01T00:00:00"/>
-        <d v="2018-10-02T00:00:00"/>
-        <d v="2018-10-04T00:00:00"/>
-        <d v="2018-10-05T00:00:00"/>
-        <d v="2018-10-08T00:00:00"/>
-        <d v="2018-10-09T00:00:00"/>
-        <d v="2018-10-10T00:00:00"/>
-        <d v="2018-10-11T00:00:00"/>
-        <d v="1899-12-30T00:00:00"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="177">
   <r>
     <d v="2018-09-19T12:44:29"/>
+    <s v="A1"/>
     <x v="0"/>
-    <s v="Smit"/>
     <n v="244"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2018-09-19T12:45:19"/>
+    <s v="A1"/>
+    <x v="1"/>
+    <n v="41"/>
     <x v="0"/>
-    <s v="House"/>
-    <n v="41"/>
   </r>
   <r>
     <d v="2018-09-19T12:45:49"/>
+    <s v="A1"/>
     <x v="0"/>
-    <s v="Smit"/>
     <n v="6.5"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2018-09-19T17:38:20"/>
+    <s v="A1"/>
     <x v="0"/>
-    <s v="Smit"/>
     <n v="59.2"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2018-09-20T21:05:29"/>
+    <s v="B2"/>
+    <x v="0"/>
+    <n v="340"/>
     <x v="1"/>
-    <s v="Smit"/>
-    <n v="340"/>
   </r>
   <r>
     <d v="2018-09-24T15:25:23"/>
+    <s v="B1"/>
+    <x v="0"/>
+    <n v="339"/>
     <x v="2"/>
-    <s v="Smit"/>
-    <n v="339"/>
   </r>
   <r>
     <d v="2018-09-28T10:42:27"/>
+    <s v="C5"/>
+    <x v="0"/>
+    <n v="270.60000000000002"/>
     <x v="3"/>
-    <s v="Smit"/>
-    <n v="270.60000000000002"/>
   </r>
   <r>
     <d v="2018-09-28T10:43:42"/>
+    <s v="C8"/>
+    <x v="0"/>
+    <n v="128.80000000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:46:48"/>
+    <s v="C4"/>
+    <x v="2"/>
+    <n v="223.5"/>
     <x v="4"/>
-    <s v="Smit"/>
-    <n v="128.80000000000001"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:46:48"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:47:03"/>
+    <s v="C8"/>
+    <x v="2"/>
+    <n v="155.6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:47:20"/>
+    <s v="C4"/>
+    <x v="1"/>
+    <n v="68.3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:47:39"/>
+    <s v="C4"/>
+    <x v="3"/>
+    <n v="11.3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:47:57"/>
+    <s v="C4"/>
+    <x v="4"/>
+    <n v="24.3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:48:16"/>
+    <s v="C7"/>
+    <x v="2"/>
+    <n v="224"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:48:37"/>
+    <s v="C7"/>
+    <x v="1"/>
+    <n v="203.6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:48:56"/>
+    <s v="C9"/>
+    <x v="2"/>
+    <n v="89.9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:49:13"/>
+    <s v="C9"/>
+    <x v="1"/>
+    <n v="166"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:49:35"/>
+    <s v="C5"/>
+    <x v="2"/>
+    <n v="50.3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:49:54"/>
+    <s v="C5"/>
+    <x v="1"/>
+    <n v="38.5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:50:11"/>
+    <s v="C5"/>
+    <x v="0"/>
+    <n v="24.4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:50:29"/>
+    <s v="C4"/>
+    <x v="0"/>
+    <n v="33.5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:50:44"/>
+    <s v="C4"/>
+    <x v="1"/>
+    <n v="75.5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T23:27:32"/>
+    <s v="C9"/>
+    <x v="1"/>
+    <n v="17"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-10-02T11:15:35"/>
+    <s v="C9"/>
+    <x v="1"/>
+    <n v="17"/>
     <x v="5"/>
-    <s v="Brie"/>
-    <n v="223.5"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:47:03"/>
-    <x v="4"/>
-    <s v="Brie"/>
-    <n v="155.6"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:47:20"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:23:21"/>
+    <s v="C6"/>
+    <x v="2"/>
+    <n v="17.7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:23:39"/>
+    <s v="C6"/>
+    <x v="0"/>
+    <n v="108.5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:23:58"/>
+    <s v="C6"/>
+    <x v="1"/>
+    <n v="50.2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:24:19"/>
+    <s v="D3"/>
     <x v="5"/>
-    <s v="House"/>
+    <n v="49.2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:24:36"/>
+    <s v="D3"/>
+    <x v="1"/>
+    <n v="94"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:24:57"/>
+    <s v="D3"/>
+    <x v="2"/>
+    <n v="78.599999999999994"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:25:16"/>
+    <s v="D3"/>
+    <x v="0"/>
     <n v="68.3"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:47:39"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:25:32"/>
+    <s v="D4"/>
+    <x v="0"/>
+    <n v="57.9"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:25:55"/>
+    <s v="D4"/>
     <x v="5"/>
-    <s v="Hunter"/>
-    <n v="11.3"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:47:57"/>
+    <n v="43.6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:26:12"/>
+    <s v="D4"/>
+    <x v="2"/>
+    <n v="113.7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:26:35"/>
+    <s v="D4"/>
+    <x v="1"/>
+    <n v="132.69999999999999"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:26:56"/>
+    <s v="D5"/>
+    <x v="0"/>
+    <n v="59.3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:27:15"/>
+    <s v="D5"/>
+    <x v="2"/>
+    <n v="65.5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:27:31"/>
+    <s v="D5"/>
+    <x v="1"/>
+    <n v="87.1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:27:47"/>
+    <s v="D5"/>
     <x v="5"/>
-    <s v="JJ"/>
-    <n v="24.3"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:48:16"/>
+    <n v="54.3"/>
     <x v="6"/>
-    <s v="Brie"/>
-    <n v="224"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:48:37"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:06:49"/>
+    <s v="E1"/>
+    <x v="2"/>
+    <n v="34.6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:07:11"/>
+    <s v="E1"/>
+    <x v="5"/>
+    <n v="26.6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:07:34"/>
+    <s v="E1"/>
+    <x v="0"/>
+    <n v="35.700000000000003"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:08:54"/>
+    <s v="E1"/>
+    <x v="1"/>
+    <n v="29"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:09:23"/>
+    <s v="D3"/>
+    <x v="2"/>
+    <n v="42"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:09:43"/>
+    <s v="D3"/>
+    <x v="0"/>
+    <n v="35"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:10:01"/>
+    <s v="D3"/>
+    <x v="1"/>
+    <n v="21.3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:10:19"/>
+    <s v="E3"/>
+    <x v="1"/>
+    <n v="68"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:10:38"/>
+    <s v="E3"/>
+    <x v="5"/>
+    <n v="50"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:11:21"/>
+    <s v="E3"/>
+    <x v="0"/>
+    <n v="57.9"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:38:28"/>
+    <s v="F1"/>
+    <x v="5"/>
+    <n v="32.799999999999997"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:38:53"/>
+    <s v="F3"/>
+    <x v="5"/>
+    <n v="36.6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:39:17"/>
+    <s v="F3"/>
+    <x v="5"/>
+    <n v="36.799999999999997"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:39:35"/>
+    <s v="F2"/>
+    <x v="5"/>
+    <n v="39.6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:39:50"/>
+    <s v="F4"/>
+    <x v="5"/>
+    <n v="34.200000000000003"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:40:04"/>
+    <s v="F4"/>
+    <x v="5"/>
+    <n v="13.6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:36:14"/>
+    <s v="F1"/>
+    <x v="1"/>
+    <n v="38.299999999999997"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:36:31"/>
+    <s v="F1"/>
+    <x v="0"/>
+    <n v="61.9"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:36:51"/>
+    <s v="F1"/>
     <x v="6"/>
-    <s v="House"/>
-    <n v="203.6"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:48:56"/>
+    <n v="54.9"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:37:08"/>
+    <s v="F1"/>
+    <x v="2"/>
+    <n v="76.3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:37:26"/>
+    <s v="F2"/>
+    <x v="0"/>
+    <n v="60.8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:37:47"/>
+    <s v="F2"/>
+    <x v="2"/>
+    <n v="87.2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:38:05"/>
+    <s v="F2"/>
+    <x v="6"/>
+    <n v="51.7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:38:22"/>
+    <s v="F2"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:38:40"/>
+    <s v="F3"/>
+    <x v="0"/>
+    <n v="113.9"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:38:59"/>
+    <s v="F3"/>
+    <x v="6"/>
+    <n v="40.700000000000003"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:39:17"/>
+    <s v="F3"/>
+    <x v="2"/>
+    <n v="31"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:39:37"/>
+    <s v="F3"/>
+    <x v="1"/>
+    <n v="57.4"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:40:00"/>
+    <s v="F4"/>
+    <x v="2"/>
+    <n v="101.2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:40:21"/>
+    <s v="F4"/>
+    <x v="1"/>
+    <n v="212.2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:40:41"/>
+    <s v="F4"/>
+    <x v="0"/>
+    <n v="50.7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:40:58"/>
+    <s v="F4"/>
+    <x v="6"/>
+    <n v="32.200000000000003"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:41:14"/>
+    <s v="F5"/>
+    <x v="1"/>
+    <n v="174.8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:41:37"/>
+    <s v="F5"/>
+    <x v="2"/>
+    <n v="73.7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:42:01"/>
+    <s v="F6"/>
+    <x v="0"/>
+    <n v="88.5"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:42:16"/>
+    <s v="F6"/>
+    <x v="1"/>
+    <n v="13.7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:42:46"/>
+    <s v="F6"/>
+    <x v="0"/>
+    <n v="37.6"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:43:02"/>
+    <s v="F6"/>
+    <x v="2"/>
+    <n v="139.5"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H1"/>
+    <x v="0"/>
+    <n v="57"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H1"/>
+    <x v="1"/>
+    <n v="101.8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H1"/>
+    <x v="2"/>
+    <n v="81.599999999999994"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H1"/>
+    <x v="5"/>
+    <n v="59.7"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H2"/>
+    <x v="1"/>
+    <n v="149.69999999999999"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H2"/>
+    <x v="0"/>
+    <n v="95.4"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H2"/>
+    <x v="5"/>
+    <n v="42.2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H3"/>
+    <x v="5"/>
+    <n v="63.5"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H3"/>
+    <x v="1"/>
+    <n v="188.8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H3"/>
+    <x v="0"/>
+    <n v="109.9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H9"/>
+    <x v="5"/>
+    <n v="71.099999999999994"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H9"/>
+    <x v="0"/>
+    <n v="86"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H9"/>
+    <x v="2"/>
+    <n v="71.099999999999994"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H9"/>
+    <x v="1"/>
+    <n v="96.6"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H4"/>
+    <x v="0"/>
+    <n v="116.3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H4"/>
+    <x v="2"/>
+    <n v="126.7"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H4"/>
+    <x v="1"/>
+    <n v="139.69999999999999"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="H4"/>
+    <x v="5"/>
+    <n v="34.799999999999997"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G1"/>
+    <x v="2"/>
+    <n v="73.5"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G1"/>
+    <x v="2"/>
+    <n v="169.3"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G1"/>
+    <x v="1"/>
+    <n v="140.6"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G2"/>
+    <x v="5"/>
+    <n v="117.2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G2"/>
+    <x v="2"/>
+    <n v="163.9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G2"/>
+    <x v="1"/>
+    <n v="108.5"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G2"/>
+    <x v="0"/>
+    <n v="185"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G3"/>
+    <x v="0"/>
+    <n v="115.1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G3"/>
+    <x v="1"/>
+    <n v="22.3"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G3"/>
+    <x v="1"/>
+    <n v="51"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <s v="G3"/>
+    <x v="2"/>
+    <n v="66.599999999999994"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G3"/>
+    <x v="1"/>
+    <n v="15.1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G3"/>
+    <x v="5"/>
+    <n v="32"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G3"/>
+    <x v="0"/>
+    <n v="82.1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G4"/>
+    <x v="2"/>
+    <n v="80.7"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G4"/>
+    <x v="0"/>
+    <n v="81.2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G4"/>
+    <x v="1"/>
+    <n v="131.6"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G4"/>
+    <x v="1"/>
+    <n v="162.5"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G4"/>
+    <x v="5"/>
+    <n v="101.4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G4"/>
+    <x v="0"/>
+    <n v="131.30000000000001"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G5"/>
+    <x v="5"/>
+    <n v="61"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G5"/>
+    <x v="1"/>
+    <n v="226.9"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="G5"/>
+    <x v="0"/>
+    <n v="99.3"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="H9"/>
+    <x v="0"/>
+    <n v="82.8"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="H9"/>
+    <x v="5"/>
+    <n v="19.100000000000001"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2018-10-11T00:00:00"/>
+    <s v="H9"/>
+    <x v="2"/>
+    <n v="57.1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="7"/>
-    <s v="Brie"/>
-    <n v="89.9"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:49:13"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="7"/>
-    <s v="House"/>
-    <n v="166"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:49:35"/>
-    <x v="3"/>
-    <s v="Brie"/>
-    <n v="50.3"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:49:54"/>
-    <x v="3"/>
-    <s v="House"/>
-    <n v="38.5"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:50:11"/>
-    <x v="3"/>
-    <s v="Smit"/>
-    <n v="24.4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:50:29"/>
-    <x v="5"/>
-    <s v="Smit"/>
-    <n v="33.5"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:50:44"/>
-    <x v="5"/>
-    <s v="House"/>
-    <n v="75.5"/>
-  </r>
-  <r>
-    <d v="2018-10-01T23:27:32"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="7"/>
-    <s v="House"/>
-    <n v="17"/>
-  </r>
-  <r>
-    <d v="2018-10-02T11:15:35"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="7"/>
-    <s v="House"/>
-    <n v="17"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:23:21"/>
-    <x v="8"/>
-    <s v="Brie"/>
-    <n v="17.7"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:23:39"/>
-    <x v="8"/>
-    <s v="Smit"/>
-    <n v="108.5"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:23:58"/>
-    <x v="8"/>
-    <s v="House"/>
-    <n v="50.2"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:24:19"/>
-    <x v="9"/>
-    <s v="Campo"/>
-    <n v="49.2"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:24:36"/>
-    <x v="9"/>
-    <s v="House"/>
-    <n v="94"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:24:57"/>
-    <x v="9"/>
-    <s v="Brie"/>
-    <n v="78.599999999999994"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:25:16"/>
-    <x v="9"/>
-    <s v="Smit"/>
-    <n v="68.3"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:25:32"/>
-    <x v="10"/>
-    <s v="Smit"/>
-    <n v="57.9"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:25:55"/>
-    <x v="10"/>
-    <s v="Campo"/>
-    <n v="43.6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:26:12"/>
-    <x v="10"/>
-    <s v="Brie"/>
-    <n v="113.7"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:26:35"/>
-    <x v="10"/>
-    <s v="House"/>
-    <n v="132.69999999999999"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:26:56"/>
-    <x v="11"/>
-    <s v="Smit"/>
-    <n v="59.3"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:27:15"/>
-    <x v="11"/>
-    <s v="Brie"/>
-    <n v="65.5"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:27:31"/>
-    <x v="11"/>
-    <s v="House"/>
-    <n v="87.1"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:27:47"/>
-    <x v="11"/>
-    <s v="Campo"/>
-    <n v="54.3"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:06:49"/>
+    <m/>
     <x v="12"/>
-    <s v="Brie"/>
-    <n v="34.6"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:07:11"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
     <x v="12"/>
-    <s v="Campo"/>
-    <n v="26.6"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:07:34"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
     <x v="12"/>
-    <s v="Smit"/>
-    <n v="35.700000000000003"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:08:54"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
     <x v="12"/>
-    <s v="House"/>
-    <n v="29"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:09:23"/>
-    <x v="9"/>
-    <s v="Brie"/>
-    <n v="42"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:09:43"/>
-    <x v="9"/>
-    <s v="Smit"/>
-    <n v="35"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:10:01"/>
-    <x v="9"/>
-    <s v="House"/>
-    <n v="21.3"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:10:19"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
     <x v="13"/>
-    <s v="House"/>
-    <n v="68"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:10:38"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
     <x v="13"/>
-    <s v="Campo"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:11:21"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
     <x v="13"/>
-    <s v="Smit"/>
-    <n v="57.9"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:38:28"/>
-    <x v="14"/>
-    <s v="Campo"/>
-    <n v="32.799999999999997"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:38:53"/>
-    <x v="15"/>
-    <s v="Campo"/>
-    <n v="36.6"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:39:17"/>
-    <x v="15"/>
-    <s v="Campo"/>
-    <n v="36.799999999999997"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:39:35"/>
-    <x v="16"/>
-    <s v="Campo"/>
-    <n v="39.6"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:39:50"/>
-    <x v="17"/>
-    <s v="Campo"/>
-    <n v="34.200000000000003"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:40:04"/>
-    <x v="17"/>
-    <s v="Campo"/>
-    <n v="13.6"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:36:14"/>
-    <x v="14"/>
-    <s v="House"/>
-    <n v="38.299999999999997"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:36:31"/>
-    <x v="14"/>
-    <s v="Smit"/>
-    <n v="61.9"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:36:51"/>
-    <x v="14"/>
-    <s v="Bob"/>
-    <n v="54.9"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:37:08"/>
-    <x v="14"/>
-    <s v="Brie"/>
-    <n v="76.3"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:37:26"/>
-    <x v="16"/>
-    <s v="Smit"/>
-    <n v="60.8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:37:47"/>
-    <x v="16"/>
-    <s v="Brie"/>
-    <n v="87.2"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:38:05"/>
-    <x v="16"/>
-    <s v="Bob"/>
-    <n v="51.7"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:38:22"/>
-    <x v="16"/>
-    <s v="House"/>
-    <n v="120"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:38:40"/>
-    <x v="15"/>
-    <s v="Smit"/>
-    <n v="113.9"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:38:59"/>
-    <x v="15"/>
-    <s v="Bob"/>
-    <n v="40.700000000000003"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:39:17"/>
-    <x v="15"/>
-    <s v="Brie"/>
-    <n v="31"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:39:37"/>
-    <x v="15"/>
-    <s v="House"/>
-    <n v="57.4"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:40:00"/>
-    <x v="17"/>
-    <s v="Brie"/>
-    <n v="101.2"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:40:21"/>
-    <x v="17"/>
-    <s v="House"/>
-    <n v="212.2"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:40:41"/>
-    <x v="17"/>
-    <s v="Smit"/>
-    <n v="50.7"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:40:58"/>
-    <x v="17"/>
-    <s v="Bob"/>
-    <n v="32.200000000000003"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:41:14"/>
-    <x v="18"/>
-    <s v="House"/>
-    <n v="174.8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:41:37"/>
-    <x v="18"/>
-    <s v="Brie"/>
-    <n v="73.7"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:42:01"/>
-    <x v="19"/>
-    <s v="Smit"/>
-    <n v="88.5"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:42:16"/>
-    <x v="19"/>
-    <s v="House"/>
-    <n v="13.7"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:42:46"/>
-    <x v="19"/>
-    <s v="Smit"/>
-    <n v="37.6"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:43:02"/>
-    <x v="19"/>
-    <s v="Brie"/>
-    <n v="139.5"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="20"/>
-    <s v="Smit"/>
-    <n v="57"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="20"/>
-    <s v="House"/>
-    <n v="101.8"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="20"/>
-    <s v="Brie"/>
-    <n v="81.599999999999994"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="20"/>
-    <s v="Campo"/>
-    <n v="59.7"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="21"/>
-    <s v="House"/>
-    <n v="149.69999999999999"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="21"/>
-    <s v="Smit"/>
-    <n v="95.4"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="21"/>
-    <s v="Campo"/>
-    <n v="42.2"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="22"/>
-    <s v="Campo"/>
-    <n v="63.5"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="22"/>
-    <s v="House"/>
-    <n v="188.8"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="22"/>
-    <s v="Smit"/>
-    <n v="109.9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="23"/>
-    <s v="Campo"/>
-    <n v="71.099999999999994"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="23"/>
-    <s v="Smit"/>
-    <n v="86"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="23"/>
-    <s v="Brie"/>
-    <n v="71.099999999999994"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="23"/>
-    <s v="House"/>
-    <n v="96.6"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="24"/>
-    <s v="Smit"/>
-    <n v="116.3"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="24"/>
-    <s v="Brie"/>
-    <n v="126.7"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="24"/>
-    <s v="House"/>
-    <n v="139.69999999999999"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <x v="24"/>
-    <s v="Campo"/>
-    <n v="34.799999999999997"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="25"/>
-    <s v="Brie"/>
-    <n v="73.5"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="25"/>
-    <s v="Brie"/>
-    <n v="169.3"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="25"/>
-    <s v="House"/>
-    <n v="140.6"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="26"/>
-    <s v="Campo"/>
-    <n v="117.2"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="26"/>
-    <s v="Brie"/>
-    <n v="163.9"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="26"/>
-    <s v="House"/>
-    <n v="108.5"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="26"/>
-    <s v="Smit"/>
-    <n v="185"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="27"/>
-    <s v="Smit"/>
-    <n v="115.1"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="27"/>
-    <s v="House"/>
-    <n v="22.3"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="27"/>
-    <s v="House"/>
-    <n v="51"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <x v="27"/>
-    <s v="Brie"/>
-    <n v="66.599999999999994"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="27"/>
-    <s v="House"/>
-    <n v="15.1"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="27"/>
-    <s v="Campo"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="27"/>
-    <s v="Smit"/>
-    <n v="82.1"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="28"/>
-    <s v="Brie"/>
-    <n v="80.7"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="28"/>
-    <s v="Smit"/>
-    <n v="81.2"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="28"/>
-    <s v="House"/>
-    <n v="131.6"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="28"/>
-    <s v="House"/>
-    <n v="162.5"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="28"/>
-    <s v="Campo"/>
-    <n v="101.4"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="28"/>
-    <s v="Smit"/>
-    <n v="131.30000000000001"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="29"/>
-    <s v="Campo"/>
-    <n v="61"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="29"/>
-    <s v="House"/>
-    <n v="226.9"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="29"/>
-    <s v="Smit"/>
-    <n v="99.3"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="23"/>
-    <s v="Smit"/>
-    <n v="82.8"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="23"/>
-    <s v="Campo"/>
-    <n v="19.100000000000001"/>
-  </r>
-  <r>
-    <d v="2018-10-11T00:00:00"/>
-    <x v="23"/>
-    <s v="Brie"/>
-    <n v="57.1"/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <x v="13"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -2728,1248 +2905,1071 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="177">
   <r>
     <d v="2018-09-19T12:44:29"/>
-    <s v="A1"/>
     <x v="0"/>
+    <s v="Smit"/>
     <n v="244"/>
+  </r>
+  <r>
+    <d v="2018-09-19T12:45:19"/>
     <x v="0"/>
-  </r>
-  <r>
-    <d v="2018-09-19T12:45:19"/>
-    <s v="A1"/>
+    <s v="House"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <d v="2018-09-19T12:45:49"/>
+    <x v="0"/>
+    <s v="Smit"/>
+    <n v="6.5"/>
+  </r>
+  <r>
+    <d v="2018-09-19T17:38:20"/>
+    <x v="0"/>
+    <s v="Smit"/>
+    <n v="59.2"/>
+  </r>
+  <r>
+    <d v="2018-09-20T21:05:29"/>
     <x v="1"/>
-    <n v="41"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2018-09-19T12:45:49"/>
-    <s v="A1"/>
-    <x v="0"/>
-    <n v="6.5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2018-09-19T17:38:20"/>
-    <s v="A1"/>
-    <x v="0"/>
-    <n v="59.2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2018-09-20T21:05:29"/>
-    <s v="B2"/>
-    <x v="0"/>
+    <s v="Smit"/>
     <n v="340"/>
-    <x v="1"/>
   </r>
   <r>
     <d v="2018-09-24T15:25:23"/>
-    <s v="B1"/>
-    <x v="0"/>
+    <x v="2"/>
+    <s v="Smit"/>
     <n v="339"/>
-    <x v="2"/>
   </r>
   <r>
     <d v="2018-09-28T10:42:27"/>
-    <s v="C5"/>
-    <x v="0"/>
+    <x v="3"/>
+    <s v="Smit"/>
     <n v="270.60000000000002"/>
+  </r>
+  <r>
+    <d v="2018-09-28T10:43:42"/>
+    <x v="4"/>
+    <s v="Smit"/>
+    <n v="128.80000000000001"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:46:48"/>
+    <x v="5"/>
+    <s v="Brie"/>
+    <n v="223.5"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:47:03"/>
+    <x v="4"/>
+    <s v="Brie"/>
+    <n v="155.6"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:47:20"/>
+    <x v="5"/>
+    <s v="House"/>
+    <n v="68.3"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:47:39"/>
+    <x v="5"/>
+    <s v="Hunter"/>
+    <n v="11.3"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:47:57"/>
+    <x v="5"/>
+    <s v="JJ"/>
+    <n v="24.3"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:48:16"/>
+    <x v="6"/>
+    <s v="Brie"/>
+    <n v="224"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:48:37"/>
+    <x v="6"/>
+    <s v="House"/>
+    <n v="203.6"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:48:56"/>
+    <x v="7"/>
+    <s v="Brie"/>
+    <n v="89.9"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:49:13"/>
+    <x v="7"/>
+    <s v="House"/>
+    <n v="166"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:49:35"/>
     <x v="3"/>
-  </r>
-  <r>
-    <d v="2018-09-28T10:43:42"/>
-    <s v="C8"/>
-    <x v="0"/>
-    <n v="128.80000000000001"/>
+    <s v="Brie"/>
+    <n v="50.3"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:49:54"/>
     <x v="3"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:46:48"/>
-    <s v="C4"/>
-    <x v="2"/>
-    <n v="223.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:47:03"/>
-    <s v="C8"/>
-    <x v="2"/>
-    <n v="155.6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:47:20"/>
-    <s v="C4"/>
-    <x v="1"/>
+    <s v="House"/>
+    <n v="38.5"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:50:11"/>
+    <x v="3"/>
+    <s v="Smit"/>
+    <n v="24.4"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:50:29"/>
+    <x v="5"/>
+    <s v="Smit"/>
+    <n v="33.5"/>
+  </r>
+  <r>
+    <d v="2018-10-01T13:50:44"/>
+    <x v="5"/>
+    <s v="House"/>
+    <n v="75.5"/>
+  </r>
+  <r>
+    <d v="2018-10-01T23:27:32"/>
+    <x v="7"/>
+    <s v="House"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <d v="2018-10-02T11:15:35"/>
+    <x v="7"/>
+    <s v="House"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:23:21"/>
+    <x v="8"/>
+    <s v="Brie"/>
+    <n v="17.7"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:23:39"/>
+    <x v="8"/>
+    <s v="Smit"/>
+    <n v="108.5"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:23:58"/>
+    <x v="8"/>
+    <s v="House"/>
+    <n v="50.2"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:24:19"/>
+    <x v="9"/>
+    <s v="Campo"/>
+    <n v="49.2"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:24:36"/>
+    <x v="9"/>
+    <s v="House"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:24:57"/>
+    <x v="9"/>
+    <s v="Brie"/>
+    <n v="78.599999999999994"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:25:16"/>
+    <x v="9"/>
+    <s v="Smit"/>
     <n v="68.3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:47:39"/>
-    <s v="C4"/>
-    <x v="3"/>
-    <n v="11.3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:47:57"/>
-    <s v="C4"/>
-    <x v="4"/>
-    <n v="24.3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:48:16"/>
-    <s v="C7"/>
-    <x v="2"/>
-    <n v="224"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:48:37"/>
-    <s v="C7"/>
-    <x v="1"/>
-    <n v="203.6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:48:56"/>
-    <s v="C9"/>
-    <x v="2"/>
-    <n v="89.9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:49:13"/>
-    <s v="C9"/>
-    <x v="1"/>
-    <n v="166"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:49:35"/>
-    <s v="C5"/>
-    <x v="2"/>
-    <n v="50.3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:49:54"/>
-    <s v="C5"/>
-    <x v="1"/>
-    <n v="38.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:50:11"/>
-    <s v="C5"/>
-    <x v="0"/>
-    <n v="24.4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:50:29"/>
-    <s v="C4"/>
-    <x v="0"/>
-    <n v="33.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T13:50:44"/>
-    <s v="C4"/>
-    <x v="1"/>
-    <n v="75.5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-01T23:27:32"/>
-    <s v="C9"/>
-    <x v="1"/>
-    <n v="17"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2018-10-02T11:15:35"/>
-    <s v="C9"/>
-    <x v="1"/>
-    <n v="17"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:23:21"/>
-    <s v="C6"/>
-    <x v="2"/>
-    <n v="17.7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:23:39"/>
-    <s v="C6"/>
-    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:25:32"/>
+    <x v="10"/>
+    <s v="Smit"/>
+    <n v="57.9"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:25:55"/>
+    <x v="10"/>
+    <s v="Campo"/>
+    <n v="43.6"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:26:12"/>
+    <x v="10"/>
+    <s v="Brie"/>
+    <n v="113.7"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:26:35"/>
+    <x v="10"/>
+    <s v="House"/>
+    <n v="132.69999999999999"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:26:56"/>
+    <x v="11"/>
+    <s v="Smit"/>
+    <n v="59.3"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:27:15"/>
+    <x v="11"/>
+    <s v="Brie"/>
+    <n v="65.5"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:27:31"/>
+    <x v="11"/>
+    <s v="House"/>
+    <n v="87.1"/>
+  </r>
+  <r>
+    <d v="2018-10-04T15:27:47"/>
+    <x v="11"/>
+    <s v="Campo"/>
+    <n v="54.3"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:06:49"/>
+    <x v="12"/>
+    <s v="Brie"/>
+    <n v="34.6"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:07:11"/>
+    <x v="12"/>
+    <s v="Campo"/>
+    <n v="26.6"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:07:34"/>
+    <x v="12"/>
+    <s v="Smit"/>
+    <n v="35.700000000000003"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:08:54"/>
+    <x v="12"/>
+    <s v="House"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:09:23"/>
+    <x v="9"/>
+    <s v="Brie"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:09:43"/>
+    <x v="9"/>
+    <s v="Smit"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:10:01"/>
+    <x v="9"/>
+    <s v="House"/>
+    <n v="21.3"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:10:19"/>
+    <x v="13"/>
+    <s v="House"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:10:38"/>
+    <x v="13"/>
+    <s v="Campo"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:11:21"/>
+    <x v="13"/>
+    <s v="Smit"/>
+    <n v="57.9"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:38:28"/>
+    <x v="14"/>
+    <s v="Campo"/>
+    <n v="32.799999999999997"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:38:53"/>
+    <x v="15"/>
+    <s v="Campo"/>
+    <n v="36.6"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:39:17"/>
+    <x v="15"/>
+    <s v="Campo"/>
+    <n v="36.799999999999997"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:39:35"/>
+    <x v="16"/>
+    <s v="Campo"/>
+    <n v="39.6"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:39:50"/>
+    <x v="17"/>
+    <s v="Campo"/>
+    <n v="34.200000000000003"/>
+  </r>
+  <r>
+    <d v="2018-10-05T22:40:04"/>
+    <x v="17"/>
+    <s v="Campo"/>
+    <n v="13.6"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:36:14"/>
+    <x v="14"/>
+    <s v="House"/>
+    <n v="38.299999999999997"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:36:31"/>
+    <x v="14"/>
+    <s v="Smit"/>
+    <n v="61.9"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:36:51"/>
+    <x v="14"/>
+    <s v="Bob"/>
+    <n v="54.9"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:37:08"/>
+    <x v="14"/>
+    <s v="Brie"/>
+    <n v="76.3"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:37:26"/>
+    <x v="16"/>
+    <s v="Smit"/>
+    <n v="60.8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:37:47"/>
+    <x v="16"/>
+    <s v="Brie"/>
+    <n v="87.2"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:38:05"/>
+    <x v="16"/>
+    <s v="Bob"/>
+    <n v="51.7"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:38:22"/>
+    <x v="16"/>
+    <s v="House"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:38:40"/>
+    <x v="15"/>
+    <s v="Smit"/>
+    <n v="113.9"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:38:59"/>
+    <x v="15"/>
+    <s v="Bob"/>
+    <n v="40.700000000000003"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:39:17"/>
+    <x v="15"/>
+    <s v="Brie"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:39:37"/>
+    <x v="15"/>
+    <s v="House"/>
+    <n v="57.4"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:40:00"/>
+    <x v="17"/>
+    <s v="Brie"/>
+    <n v="101.2"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:40:21"/>
+    <x v="17"/>
+    <s v="House"/>
+    <n v="212.2"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:40:41"/>
+    <x v="17"/>
+    <s v="Smit"/>
+    <n v="50.7"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:40:58"/>
+    <x v="17"/>
+    <s v="Bob"/>
+    <n v="32.200000000000003"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:41:14"/>
+    <x v="18"/>
+    <s v="House"/>
+    <n v="174.8"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:41:37"/>
+    <x v="18"/>
+    <s v="Brie"/>
+    <n v="73.7"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:42:01"/>
+    <x v="19"/>
+    <s v="Smit"/>
+    <n v="88.5"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:42:16"/>
+    <x v="19"/>
+    <s v="House"/>
+    <n v="13.7"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:42:46"/>
+    <x v="19"/>
+    <s v="Smit"/>
+    <n v="37.6"/>
+  </r>
+  <r>
+    <d v="2018-10-08T10:43:02"/>
+    <x v="19"/>
+    <s v="Brie"/>
+    <n v="139.5"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="20"/>
+    <s v="Smit"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="20"/>
+    <s v="House"/>
+    <n v="101.8"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="20"/>
+    <s v="Brie"/>
+    <n v="81.599999999999994"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="20"/>
+    <s v="Campo"/>
+    <n v="59.7"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="21"/>
+    <s v="House"/>
+    <n v="149.69999999999999"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="21"/>
+    <s v="Smit"/>
+    <n v="95.4"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="21"/>
+    <s v="Campo"/>
+    <n v="42.2"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="22"/>
+    <s v="Campo"/>
+    <n v="63.5"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="22"/>
+    <s v="House"/>
+    <n v="188.8"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="22"/>
+    <s v="Smit"/>
+    <n v="109.9"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="23"/>
+    <s v="Campo"/>
+    <n v="71.099999999999994"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="23"/>
+    <s v="Smit"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="23"/>
+    <s v="Brie"/>
+    <n v="71.099999999999994"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="23"/>
+    <s v="House"/>
+    <n v="96.6"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="24"/>
+    <s v="Smit"/>
+    <n v="116.3"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="24"/>
+    <s v="Brie"/>
+    <n v="126.7"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="24"/>
+    <s v="House"/>
+    <n v="139.69999999999999"/>
+  </r>
+  <r>
+    <d v="2018-10-09T00:00:00"/>
+    <x v="24"/>
+    <s v="Campo"/>
+    <n v="34.799999999999997"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <x v="25"/>
+    <s v="Brie"/>
+    <n v="73.5"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <x v="25"/>
+    <s v="Brie"/>
+    <n v="169.3"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <x v="25"/>
+    <s v="House"/>
+    <n v="140.6"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <x v="26"/>
+    <s v="Campo"/>
+    <n v="117.2"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <x v="26"/>
+    <s v="Brie"/>
+    <n v="163.9"/>
+  </r>
+  <r>
+    <d v="2018-10-10T00:00:00"/>
+    <x v="26"/>
+    <s v="House"/>
     <n v="108.5"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:23:58"/>
-    <s v="C6"/>
-    <x v="1"/>
-    <n v="50.2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:24:19"/>
-    <s v="D3"/>
-    <x v="5"/>
-    <n v="49.2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:24:36"/>
-    <s v="D3"/>
-    <x v="1"/>
-    <n v="94"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:24:57"/>
-    <s v="D3"/>
-    <x v="2"/>
-    <n v="78.599999999999994"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:25:16"/>
-    <s v="D3"/>
-    <x v="0"/>
-    <n v="68.3"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:25:32"/>
-    <s v="D4"/>
-    <x v="0"/>
-    <n v="57.9"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:25:55"/>
-    <s v="D4"/>
-    <x v="5"/>
-    <n v="43.6"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:26:12"/>
-    <s v="D4"/>
-    <x v="2"/>
-    <n v="113.7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:26:35"/>
-    <s v="D4"/>
-    <x v="1"/>
-    <n v="132.69999999999999"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:26:56"/>
-    <s v="D5"/>
-    <x v="0"/>
-    <n v="59.3"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:27:15"/>
-    <s v="D5"/>
-    <x v="2"/>
-    <n v="65.5"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:27:31"/>
-    <s v="D5"/>
-    <x v="1"/>
-    <n v="87.1"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-04T15:27:47"/>
-    <s v="D5"/>
-    <x v="5"/>
-    <n v="54.3"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:06:49"/>
-    <s v="E1"/>
-    <x v="2"/>
-    <n v="34.6"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:07:11"/>
-    <s v="E1"/>
-    <x v="5"/>
-    <n v="26.6"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:07:34"/>
-    <s v="E1"/>
-    <x v="0"/>
-    <n v="35.700000000000003"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:08:54"/>
-    <s v="E1"/>
-    <x v="1"/>
-    <n v="29"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:09:23"/>
-    <s v="D3"/>
-    <x v="2"/>
-    <n v="42"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:09:43"/>
-    <s v="D3"/>
-    <x v="0"/>
-    <n v="35"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:10:01"/>
-    <s v="D3"/>
-    <x v="1"/>
-    <n v="21.3"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:10:19"/>
-    <s v="E3"/>
-    <x v="1"/>
-    <n v="68"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:10:38"/>
-    <s v="E3"/>
-    <x v="5"/>
-    <n v="50"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:11:21"/>
-    <s v="E3"/>
-    <x v="0"/>
-    <n v="57.9"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:38:28"/>
-    <s v="F1"/>
-    <x v="5"/>
-    <n v="32.799999999999997"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:38:53"/>
-    <s v="F3"/>
-    <x v="5"/>
-    <n v="36.6"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:39:17"/>
-    <s v="F3"/>
-    <x v="5"/>
-    <n v="36.799999999999997"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:39:35"/>
-    <s v="F2"/>
-    <x v="5"/>
-    <n v="39.6"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:39:50"/>
-    <s v="F4"/>
-    <x v="5"/>
-    <n v="34.200000000000003"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-05T22:40:04"/>
-    <s v="F4"/>
-    <x v="5"/>
-    <n v="13.6"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:36:14"/>
-    <s v="F1"/>
-    <x v="1"/>
-    <n v="38.299999999999997"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:36:31"/>
-    <s v="F1"/>
-    <x v="0"/>
-    <n v="61.9"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:36:51"/>
-    <s v="F1"/>
-    <x v="6"/>
-    <n v="54.9"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:37:08"/>
-    <s v="F1"/>
-    <x v="2"/>
-    <n v="76.3"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:37:26"/>
-    <s v="F2"/>
-    <x v="0"/>
-    <n v="60.8"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:37:47"/>
-    <s v="F2"/>
-    <x v="2"/>
-    <n v="87.2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:38:05"/>
-    <s v="F2"/>
-    <x v="6"/>
-    <n v="51.7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:38:22"/>
-    <s v="F2"/>
-    <x v="1"/>
-    <n v="120"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:38:40"/>
-    <s v="F3"/>
-    <x v="0"/>
-    <n v="113.9"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:38:59"/>
-    <s v="F3"/>
-    <x v="6"/>
-    <n v="40.700000000000003"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:39:17"/>
-    <s v="F3"/>
-    <x v="2"/>
-    <n v="31"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:39:37"/>
-    <s v="F3"/>
-    <x v="1"/>
-    <n v="57.4"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:40:00"/>
-    <s v="F4"/>
-    <x v="2"/>
-    <n v="101.2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:40:21"/>
-    <s v="F4"/>
-    <x v="1"/>
-    <n v="212.2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:40:41"/>
-    <s v="F4"/>
-    <x v="0"/>
-    <n v="50.7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:40:58"/>
-    <s v="F4"/>
-    <x v="6"/>
-    <n v="32.200000000000003"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:41:14"/>
-    <s v="F5"/>
-    <x v="1"/>
-    <n v="174.8"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:41:37"/>
-    <s v="F5"/>
-    <x v="2"/>
-    <n v="73.7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:42:01"/>
-    <s v="F6"/>
-    <x v="0"/>
-    <n v="88.5"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:42:16"/>
-    <s v="F6"/>
-    <x v="1"/>
-    <n v="13.7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:42:46"/>
-    <s v="F6"/>
-    <x v="0"/>
-    <n v="37.6"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-08T10:43:02"/>
-    <s v="F6"/>
-    <x v="2"/>
-    <n v="139.5"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H1"/>
-    <x v="0"/>
-    <n v="57"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H1"/>
-    <x v="1"/>
-    <n v="101.8"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H1"/>
-    <x v="2"/>
-    <n v="81.599999999999994"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H1"/>
-    <x v="5"/>
-    <n v="59.7"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H2"/>
-    <x v="1"/>
-    <n v="149.69999999999999"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H2"/>
-    <x v="0"/>
-    <n v="95.4"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H2"/>
-    <x v="5"/>
-    <n v="42.2"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H3"/>
-    <x v="5"/>
-    <n v="63.5"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H3"/>
-    <x v="1"/>
-    <n v="188.8"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H3"/>
-    <x v="0"/>
-    <n v="109.9"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H9"/>
-    <x v="5"/>
-    <n v="71.099999999999994"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H9"/>
-    <x v="0"/>
-    <n v="86"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H9"/>
-    <x v="2"/>
-    <n v="71.099999999999994"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H9"/>
-    <x v="1"/>
-    <n v="96.6"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H4"/>
-    <x v="0"/>
-    <n v="116.3"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H4"/>
-    <x v="2"/>
-    <n v="126.7"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H4"/>
-    <x v="1"/>
-    <n v="139.69999999999999"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2018-10-09T00:00:00"/>
-    <s v="H4"/>
-    <x v="5"/>
-    <n v="34.799999999999997"/>
-    <x v="9"/>
   </r>
   <r>
     <d v="2018-10-10T00:00:00"/>
-    <s v="G1"/>
-    <x v="2"/>
-    <n v="73.5"/>
-    <x v="10"/>
+    <x v="26"/>
+    <s v="Smit"/>
+    <n v="185"/>
   </r>
   <r>
     <d v="2018-10-10T00:00:00"/>
-    <s v="G1"/>
-    <x v="2"/>
-    <n v="169.3"/>
-    <x v="10"/>
+    <x v="27"/>
+    <s v="Smit"/>
+    <n v="115.1"/>
   </r>
   <r>
     <d v="2018-10-10T00:00:00"/>
-    <s v="G1"/>
-    <x v="1"/>
-    <n v="140.6"/>
-    <x v="10"/>
+    <x v="27"/>
+    <s v="House"/>
+    <n v="22.3"/>
   </r>
   <r>
     <d v="2018-10-10T00:00:00"/>
-    <s v="G2"/>
-    <x v="5"/>
-    <n v="117.2"/>
-    <x v="10"/>
+    <x v="27"/>
+    <s v="House"/>
+    <n v="51"/>
   </r>
   <r>
     <d v="2018-10-10T00:00:00"/>
-    <s v="G2"/>
-    <x v="2"/>
-    <n v="163.9"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <s v="G2"/>
-    <x v="1"/>
-    <n v="108.5"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <s v="G2"/>
-    <x v="0"/>
-    <n v="185"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <s v="G3"/>
-    <x v="0"/>
-    <n v="115.1"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <s v="G3"/>
-    <x v="1"/>
-    <n v="22.3"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <s v="G3"/>
-    <x v="1"/>
-    <n v="51"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <d v="2018-10-10T00:00:00"/>
-    <s v="G3"/>
-    <x v="2"/>
+    <x v="27"/>
+    <s v="Brie"/>
     <n v="66.599999999999994"/>
-    <x v="10"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G3"/>
-    <x v="1"/>
+    <x v="27"/>
+    <s v="House"/>
     <n v="15.1"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G3"/>
-    <x v="5"/>
+    <x v="27"/>
+    <s v="Campo"/>
     <n v="32"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G3"/>
-    <x v="0"/>
+    <x v="27"/>
+    <s v="Smit"/>
     <n v="82.1"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G4"/>
-    <x v="2"/>
+    <x v="28"/>
+    <s v="Brie"/>
     <n v="80.7"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G4"/>
-    <x v="0"/>
+    <x v="28"/>
+    <s v="Smit"/>
     <n v="81.2"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G4"/>
-    <x v="1"/>
+    <x v="28"/>
+    <s v="House"/>
     <n v="131.6"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G4"/>
-    <x v="1"/>
+    <x v="28"/>
+    <s v="House"/>
     <n v="162.5"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G4"/>
-    <x v="5"/>
+    <x v="28"/>
+    <s v="Campo"/>
     <n v="101.4"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G4"/>
-    <x v="0"/>
+    <x v="28"/>
+    <s v="Smit"/>
     <n v="131.30000000000001"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G5"/>
-    <x v="5"/>
+    <x v="29"/>
+    <s v="Campo"/>
     <n v="61"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G5"/>
-    <x v="1"/>
+    <x v="29"/>
+    <s v="House"/>
     <n v="226.9"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="G5"/>
-    <x v="0"/>
+    <x v="29"/>
+    <s v="Smit"/>
     <n v="99.3"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="H9"/>
-    <x v="0"/>
+    <x v="23"/>
+    <s v="Smit"/>
     <n v="82.8"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="H9"/>
-    <x v="5"/>
+    <x v="23"/>
+    <s v="Campo"/>
     <n v="19.100000000000001"/>
-    <x v="11"/>
   </r>
   <r>
     <d v="2018-10-11T00:00:00"/>
-    <s v="H9"/>
-    <x v="2"/>
+    <x v="23"/>
+    <s v="Brie"/>
     <n v="57.1"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="12"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="13"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="13"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="13"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <x v="13"/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Trimmer By Day" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Trimmer By Day" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A1:P11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField name="Timestamp" compact="0" numFmtId="14" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -4103,7 +4103,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="By Plant" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="By Plant" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A1:C34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField name="Timestamp" compact="0" numFmtId="14" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -4574,8 +4574,8 @@
   </sheetPr>
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10579,11 +10579,11 @@
         <v>82</v>
       </c>
       <c r="F2" t="e">
-        <f ca="1">VLOOKUP(A2,PlantInfo!B:E,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A2,Plant_Info!B:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G2" t="e">
-        <f ca="1">VLOOKUP(A2,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A2,Plant_Info!B:D,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H2" s="5"/>
@@ -10599,7 +10599,7 @@
         <v>12.525</v>
       </c>
       <c r="D3" t="str">
-        <f ca="1">VLOOKUP(A3,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A3,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Lemon Pie (1)</v>
       </c>
       <c r="E3" s="7">
@@ -10607,11 +10607,11 @@
         <v>12.525</v>
       </c>
       <c r="F3">
-        <f ca="1">VLOOKUP(A3,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A3,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G3">
-        <f ca="1">VLOOKUP(A3,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A3,Plant_Info!B:D,3,FALSE)</f>
         <v>42</v>
       </c>
       <c r="H3" s="5">
@@ -10630,7 +10630,7 @@
         <v>12.107142857142858</v>
       </c>
       <c r="D4" t="str">
-        <f ca="1">VLOOKUP(A4,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A4,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Blackberry Kush</v>
       </c>
       <c r="E4" s="7">
@@ -10638,11 +10638,11 @@
         <v>12.107142857142858</v>
       </c>
       <c r="F4">
-        <f ca="1">VLOOKUP(A4,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A4,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G4">
-        <f ca="1">VLOOKUP(A4,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A4,Plant_Info!B:D,3,FALSE)</f>
         <v>49</v>
       </c>
       <c r="H4" s="5">
@@ -10661,7 +10661,7 @@
         <v>12.142857142857142</v>
       </c>
       <c r="D5" t="str">
-        <f ca="1">VLOOKUP(A5,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A5,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Lemon Puff</v>
       </c>
       <c r="E5" s="7">
@@ -10669,11 +10669,11 @@
         <v>12.142857142857142</v>
       </c>
       <c r="F5">
-        <f ca="1">VLOOKUP(A5,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A5,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G5">
-        <f ca="1">VLOOKUP(A5,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A5,Plant_Info!B:D,3,FALSE)</f>
         <v>50</v>
       </c>
       <c r="H5" s="5">
@@ -10692,7 +10692,7 @@
         <v>15.585714285714287</v>
       </c>
       <c r="D6" t="str">
-        <f ca="1">VLOOKUP(A6,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A6,Plant_Info!$B:$C,2,FALSE)</f>
         <v>GMO</v>
       </c>
       <c r="E6" s="7">
@@ -10700,11 +10700,11 @@
         <v>15.585714285714287</v>
       </c>
       <c r="F6">
-        <f ca="1">VLOOKUP(A6,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A6,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G6">
-        <f ca="1">VLOOKUP(A6,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A6,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H6" s="5">
@@ -10723,7 +10723,7 @@
         <v>13.707142857142857</v>
       </c>
       <c r="D7" t="str">
-        <f ca="1">VLOOKUP(A7,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A7,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Gorilla Butter</v>
       </c>
       <c r="E7" s="7">
@@ -10731,11 +10731,11 @@
         <v>13.707142857142857</v>
       </c>
       <c r="F7">
-        <f ca="1">VLOOKUP(A7,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A7,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G7">
-        <f ca="1">VLOOKUP(A7,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A7,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H7" s="5">
@@ -10754,7 +10754,7 @@
         <v>6.3</v>
       </c>
       <c r="D8" t="str">
-        <f ca="1">VLOOKUP(A8,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A8,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Afgan Kush</v>
       </c>
       <c r="E8" s="7">
@@ -10762,11 +10762,11 @@
         <v>6.3</v>
       </c>
       <c r="F8">
-        <f ca="1">VLOOKUP(A8,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A8,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G8">
-        <f ca="1">VLOOKUP(A8,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A8,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H8" s="5">
@@ -10785,7 +10785,7 @@
         <v>15.271428571428572</v>
       </c>
       <c r="D9" t="str">
-        <f ca="1">VLOOKUP(A9,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A9,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Lemon Puff</v>
       </c>
       <c r="E9" s="7">
@@ -10793,11 +10793,11 @@
         <v>15.271428571428572</v>
       </c>
       <c r="F9">
-        <f ca="1">VLOOKUP(A9,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A9,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G9">
-        <f ca="1">VLOOKUP(A9,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A9,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H9" s="5">
@@ -10816,7 +10816,7 @@
         <v>10.157142857142857</v>
       </c>
       <c r="D10" t="str">
-        <f ca="1">VLOOKUP(A10,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A10,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Filet mignon</v>
       </c>
       <c r="E10" s="7">
@@ -10824,11 +10824,11 @@
         <v>10.157142857142857</v>
       </c>
       <c r="F10">
-        <f ca="1">VLOOKUP(A10,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A10,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G10">
-        <f ca="1">VLOOKUP(A10,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A10,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H10" s="5">
@@ -10847,7 +10847,7 @@
         <v>10.353571428571428</v>
       </c>
       <c r="D11" t="str">
-        <f ca="1">VLOOKUP(A11,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A11,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Meat the cookies</v>
       </c>
       <c r="E11" s="7">
@@ -10855,11 +10855,11 @@
         <v>10.353571428571428</v>
       </c>
       <c r="F11">
-        <f ca="1">VLOOKUP(A11,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A11,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G11">
-        <f ca="1">VLOOKUP(A11,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A11,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H11" s="5">
@@ -10878,7 +10878,7 @@
         <v>13.87142857142857</v>
       </c>
       <c r="D12" t="str">
-        <f ca="1">VLOOKUP(A12,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A12,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Meat Breath</v>
       </c>
       <c r="E12" s="7">
@@ -10886,11 +10886,11 @@
         <v>13.87142857142857</v>
       </c>
       <c r="F12">
-        <f ca="1">VLOOKUP(A12,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A12,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G12">
-        <f ca="1">VLOOKUP(A12,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A12,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H12" s="5">
@@ -10909,7 +10909,7 @@
         <v>12.424999999999999</v>
       </c>
       <c r="D13" t="str">
-        <f ca="1">VLOOKUP(A13,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A13,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Lemon Puff</v>
       </c>
       <c r="E13" s="7">
@@ -10917,11 +10917,11 @@
         <v>12.424999999999999</v>
       </c>
       <c r="F13">
-        <f ca="1">VLOOKUP(A13,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A13,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G13">
-        <f ca="1">VLOOKUP(A13,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A13,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H13" s="5">
@@ -10940,7 +10940,7 @@
         <v>9.5071428571428562</v>
       </c>
       <c r="D14" t="str">
-        <f ca="1">VLOOKUP(A14,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A14,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Lemon Butter</v>
       </c>
       <c r="E14" s="7">
@@ -10948,11 +10948,11 @@
         <v>9.5071428571428562</v>
       </c>
       <c r="F14">
-        <f ca="1">VLOOKUP(A14,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A14,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G14">
-        <f ca="1">VLOOKUP(A14,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A14,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H14" s="5">
@@ -10971,7 +10971,7 @@
         <v>4.4964285714285719</v>
       </c>
       <c r="D15" t="str">
-        <f ca="1">VLOOKUP(A15,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A15,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Big Apple Butter</v>
       </c>
       <c r="E15" s="7">
@@ -10979,11 +10979,11 @@
         <v>4.4964285714285719</v>
       </c>
       <c r="F15">
-        <f ca="1">VLOOKUP(A15,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A15,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G15">
-        <f ca="1">VLOOKUP(A15,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A15,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H15" s="5">
@@ -11002,7 +11002,7 @@
         <v>6.2821428571428575</v>
       </c>
       <c r="D16" t="str">
-        <f ca="1">VLOOKUP(A16,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A16,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Electric Lemon G</v>
       </c>
       <c r="E16" s="7">
@@ -11010,11 +11010,11 @@
         <v>6.2821428571428575</v>
       </c>
       <c r="F16">
-        <f ca="1">VLOOKUP(A16,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A16,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G16">
-        <f ca="1">VLOOKUP(A16,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A16,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H16" s="5">
@@ -11033,7 +11033,7 @@
         <v>9.4357142857142851</v>
       </c>
       <c r="D17" t="str">
-        <f ca="1">VLOOKUP(A17,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A17,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Peanut Butter Breath #1</v>
       </c>
       <c r="E17" s="7">
@@ -11041,11 +11041,11 @@
         <v>9.4357142857142851</v>
       </c>
       <c r="F17">
-        <f ca="1">VLOOKUP(A17,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A17,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G17">
-        <f ca="1">VLOOKUP(A17,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A17,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H17" s="5">
@@ -11064,7 +11064,7 @@
         <v>12.832142857142857</v>
       </c>
       <c r="D18" t="str">
-        <f ca="1">VLOOKUP(A18,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A18,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Ancient Whisper</v>
       </c>
       <c r="E18" s="7">
@@ -11072,11 +11072,11 @@
         <v>12.832142857142857</v>
       </c>
       <c r="F18">
-        <f ca="1">VLOOKUP(A18,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A18,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G18">
-        <f ca="1">VLOOKUP(A18,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A18,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H18" s="5">
@@ -11095,7 +11095,7 @@
         <v>11.299999999999999</v>
       </c>
       <c r="D19" t="str">
-        <f ca="1">VLOOKUP(A19,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A19,Plant_Info!$B:$C,2,FALSE)</f>
         <v>ButterFace</v>
       </c>
       <c r="E19" s="7">
@@ -11103,11 +11103,11 @@
         <v>11.299999999999999</v>
       </c>
       <c r="F19">
-        <f ca="1">VLOOKUP(A19,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A19,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G19">
-        <f ca="1">VLOOKUP(A19,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A19,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H19" s="5">
@@ -11126,7 +11126,7 @@
         <v>15.860714285714284</v>
       </c>
       <c r="D20" t="str">
-        <f ca="1">VLOOKUP(A20,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A20,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Gorilla Butter #2</v>
       </c>
       <c r="E20" s="7">
@@ -11134,11 +11134,11 @@
         <v>15.860714285714284</v>
       </c>
       <c r="F20">
-        <f ca="1">VLOOKUP(A20,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A20,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G20">
-        <f ca="1">VLOOKUP(A20,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A20,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H20" s="5">
@@ -11157,7 +11157,7 @@
         <v>8.875</v>
       </c>
       <c r="D21" t="str">
-        <f ca="1">VLOOKUP(A21,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A21,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Meat the Cookies #2</v>
       </c>
       <c r="E21" s="7">
@@ -11165,11 +11165,11 @@
         <v>8.875</v>
       </c>
       <c r="F21">
-        <f ca="1">VLOOKUP(A21,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A21,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G21">
-        <f ca="1">VLOOKUP(A21,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A21,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H21" s="5">
@@ -11188,7 +11188,7 @@
         <v>9.9749999999999996</v>
       </c>
       <c r="D22" t="str">
-        <f ca="1">VLOOKUP(A22,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A22,Plant_Info!$B:$C,2,FALSE)</f>
         <v>GMO #2</v>
       </c>
       <c r="E22" s="7">
@@ -11196,11 +11196,11 @@
         <v>9.9749999999999996</v>
       </c>
       <c r="F22">
-        <f ca="1">VLOOKUP(A22,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A22,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G22">
-        <f ca="1">VLOOKUP(A22,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A22,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H22" s="5">
@@ -11219,7 +11219,7 @@
         <v>13.692857142857141</v>
       </c>
       <c r="D23" t="str">
-        <f ca="1">VLOOKUP(A23,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A23,Plant_Info!$B:$C,2,FALSE)</f>
         <v>GMO #3</v>
       </c>
       <c r="E23" s="7">
@@ -11227,11 +11227,11 @@
         <v>13.692857142857141</v>
       </c>
       <c r="F23">
-        <f ca="1">VLOOKUP(A23,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A23,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G23">
-        <f ca="1">VLOOKUP(A23,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A23,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H23" s="5">
@@ -11250,7 +11250,7 @@
         <v>20.521428571428572</v>
       </c>
       <c r="D24" t="str">
-        <f ca="1">VLOOKUP(A24,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A24,Plant_Info!$B:$C,2,FALSE)</f>
         <v>GMO #4</v>
       </c>
       <c r="E24" s="7">
@@ -11258,11 +11258,11 @@
         <v>20.521428571428572</v>
       </c>
       <c r="F24">
-        <f ca="1">VLOOKUP(A24,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A24,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G24">
-        <f ca="1">VLOOKUP(A24,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A24,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H24" s="5">
@@ -11281,7 +11281,7 @@
         <v>13.721428571428573</v>
       </c>
       <c r="D25" t="str">
-        <f ca="1">VLOOKUP(A25,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A25,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Electric Lemon G #2</v>
       </c>
       <c r="E25" s="7">
@@ -11289,11 +11289,11 @@
         <v>13.721428571428573</v>
       </c>
       <c r="F25">
-        <f ca="1">VLOOKUP(A25,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A25,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G25">
-        <f ca="1">VLOOKUP(A25,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A25,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H25" s="5">
@@ -11312,7 +11312,7 @@
         <v>24.596428571428572</v>
       </c>
       <c r="D26" t="str">
-        <f ca="1">VLOOKUP(A26,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A26,Plant_Info!$B:$C,2,FALSE)</f>
         <v>GMO #5</v>
       </c>
       <c r="E26" s="7">
@@ -11320,11 +11320,11 @@
         <v>24.596428571428572</v>
       </c>
       <c r="F26">
-        <f ca="1">VLOOKUP(A26,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A26,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G26">
-        <f ca="1">VLOOKUP(A26,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A26,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H26" s="5">
@@ -11343,7 +11343,7 @@
         <v>13.828571428571427</v>
       </c>
       <c r="D27" t="str">
-        <f ca="1">VLOOKUP(A27,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A27,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Lemon Pie #3</v>
       </c>
       <c r="E27" s="7">
@@ -11351,11 +11351,11 @@
         <v>13.828571428571427</v>
       </c>
       <c r="F27">
-        <f ca="1">VLOOKUP(A27,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A27,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G27">
-        <f ca="1">VLOOKUP(A27,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A27,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H27" s="5">
@@ -11374,7 +11374,7 @@
         <v>10.717857142857143</v>
       </c>
       <c r="D28" t="str">
-        <f ca="1">VLOOKUP(A28,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A28,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Meat The Cookies #3</v>
       </c>
       <c r="E28" s="7">
@@ -11382,11 +11382,11 @@
         <v>10.717857142857143</v>
       </c>
       <c r="F28">
-        <f ca="1">VLOOKUP(A28,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A28,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G28">
-        <f ca="1">VLOOKUP(A28,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A28,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H28" s="5">
@@ -11405,7 +11405,7 @@
         <v>10.260714285714286</v>
       </c>
       <c r="D29" t="str">
-        <f ca="1">VLOOKUP(A29,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A29,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Peanut Butter Breath #2</v>
       </c>
       <c r="E29" s="7">
@@ -11413,11 +11413,11 @@
         <v>10.260714285714286</v>
       </c>
       <c r="F29">
-        <f ca="1">VLOOKUP(A29,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A29,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G29">
-        <f ca="1">VLOOKUP(A29,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A29,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H29" s="5">
@@ -11436,7 +11436,7 @@
         <v>12.935714285714287</v>
       </c>
       <c r="D30" t="str">
-        <f ca="1">VLOOKUP(A30,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A30,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Watermellon ZDP</v>
       </c>
       <c r="E30" s="7">
@@ -11444,11 +11444,11 @@
         <v>12.935714285714287</v>
       </c>
       <c r="F30">
-        <f ca="1">VLOOKUP(A30,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A30,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G30">
-        <f ca="1">VLOOKUP(A30,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A30,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H30" s="5">
@@ -11467,7 +11467,7 @@
         <v>14.910714285714286</v>
       </c>
       <c r="D31" t="str">
-        <f ca="1">VLOOKUP(A31,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A31,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Gorilla Butter #3</v>
       </c>
       <c r="E31" s="7">
@@ -11475,11 +11475,11 @@
         <v>14.910714285714286</v>
       </c>
       <c r="F31">
-        <f ca="1">VLOOKUP(A31,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A31,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G31">
-        <f ca="1">VLOOKUP(A31,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A31,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H31" s="5">
@@ -11498,7 +11498,7 @@
         <v>17.278571428571428</v>
       </c>
       <c r="D32" t="str">
-        <f ca="1">VLOOKUP(A32,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A32,Plant_Info!$B:$C,2,FALSE)</f>
         <v>Lemon Pie #2</v>
       </c>
       <c r="E32" s="7">
@@ -11506,11 +11506,11 @@
         <v>17.278571428571428</v>
       </c>
       <c r="F32">
-        <f ca="1">VLOOKUP(A32,PlantInfo!B:E,4,FALSE)</f>
+        <f ca="1">VLOOKUP(A32,Plant_Info!B:E,4,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G32">
-        <f ca="1">VLOOKUP(A32,PlantInfo!B:D,3,FALSE)</f>
+        <f ca="1">VLOOKUP(A32,Plant_Info!B:D,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H32" s="5">
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="e">
-        <f ca="1">VLOOKUP(A33,PlantInfo!$B:$C,2,FALSE)</f>
+        <f ca="1">VLOOKUP(A33,Plant_Info!$B:$C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H33" s="5"/>
@@ -23982,7 +23982,7 @@
   </sheetPr>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -24185,6 +24185,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
@@ -24215,7 +24218,7 @@
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43361.9436850924)</f>
-        <v>43361.943685092498</v>
+        <v>43361.943685092403</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A1")</f>
@@ -24397,7 +24400,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43362.0083454397)</f>
-        <v>43362.008345439797</v>
+        <v>43362.008345439703</v>
       </c>
       <c r="B9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B2")</f>
